--- a/cases/user.xlsx
+++ b/cases/user.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="add_user" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="get_user" sheetId="2" r:id="rId2"/>
+    <sheet name="get_mgmt_user" sheetId="4" r:id="rId3"/>
+    <sheet name="delete_user" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +108,49 @@
   </si>
   <si>
     <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privilege</t>
+  </si>
+  <si>
+    <t>privilege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>administrator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -576,12 +620,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="6" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -589,12 +659,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
